--- a/API_Test_Cases.xlsx
+++ b/API_Test_Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="138">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -326,6 +326,18 @@
   </si>
   <si>
     <t>{"num_a": 1, "num_b": 2, "extra_field": "value"} with valid token</t>
+  </si>
+  <si>
+    <t>TC-3.17</t>
+  </si>
+  <si>
+    <t>Verify request fails with expired token</t>
+  </si>
+  <si>
+    <t>Token older than 120 sec</t>
+  </si>
+  <si>
+    <t>Generate token via /api-2 → Wait &gt;120s → Use token on /api-3</t>
   </si>
   <si>
     <t>TC-4.0</t>
@@ -466,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -474,6 +486,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1191,74 +1206,74 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
+    </row>
+    <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -1275,27 +1290,43 @@
         <v>127</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="2" t="s">
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1"/>
+      <c r="B40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1"/>
@@ -2260,6 +2291,7 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
